--- a/tandu_prototype/instruction.xlsx
+++ b/tandu_prototype/instruction.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masm\hardware-cpu-experiment\tandu_prototype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oowsx\Documents\GitHub\hardware-cpu-experiment\tandu_prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68AF201-329A-4BEF-89EE-7DE70FA3D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7109CF-8C2C-4B98-9635-344818B33EAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1275" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="2377" windowWidth="14580" windowHeight="9983" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
   <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,6 +494,14 @@
   </si>
   <si>
     <t>11100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,17 +830,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,7 +865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,7 +873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,7 +887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,7 +906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,7 +914,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -910,7 +925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -918,7 +933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -932,7 +947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -940,7 +955,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -951,7 +966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -959,7 +974,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -973,7 +988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -981,7 +996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1003,7 +1018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1119,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1153,7 +1168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1257,7 +1272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1265,7 +1280,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1276,7 +1291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1284,27 +1299,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -1315,77 +1330,77 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -1395,4 +1410,907 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC041AE0-AB24-42B6-AEF3-DC8A24601C25}">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="str">
+        <f>A2</f>
+        <v>00</v>
+      </c>
+      <c r="G2" t="str">
+        <f>BIN2HEX(B2,2)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F49" si="0">A3</f>
+        <v>01</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G49" si="1">BIN2HEX(B3,2)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>D0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>0B</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>0F</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>7A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>AF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>0C</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>0D</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>BC</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>E0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>